--- a/data/trans_orig/IP07C12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31CCB09F-EE61-4541-86B8-65CBE5060660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C61478F-2056-45E8-9DE5-E561932ADD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C5F389B4-6527-47E4-9E7C-1F78734A0047}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FC52C602-8AAA-4344-BC8F-72291397AE73}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,198 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
     <t>13,48%</t>
   </si>
   <si>
@@ -118,33 +289,6 @@
     <t>15,31%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
     <t>31,71%</t>
   </si>
   <si>
@@ -172,21 +316,6 @@
     <t>37,3%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>54,26%</t>
   </si>
   <si>
@@ -214,133 +343,49 @@
     <t>55,94%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>13,55%</t>
@@ -370,30 +415,6 @@
     <t>14,84%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
     <t>31,64%</t>
   </si>
   <si>
@@ -421,27 +442,6 @@
     <t>35,8%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
     <t>54,17%</t>
   </si>
   <si>
@@ -472,6 +472,138 @@
     <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2012 (Tasa respuesta: 43,69%)</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
     <t>9,23%</t>
   </si>
   <si>
@@ -499,33 +631,6 @@
     <t>13,65%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
     <t>33,21%</t>
   </si>
   <si>
@@ -550,15 +655,6 @@
     <t>35,44%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
     <t>56,34%</t>
   </si>
   <si>
@@ -586,100 +682,28 @@
     <t>59,37%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>9,71%</t>
@@ -706,24 +730,6 @@
     <t>13,14%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
     <t>33,41%</t>
   </si>
   <si>
@@ -751,12 +757,6 @@
     <t>35,27%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
     <t>55,9%</t>
   </si>
   <si>
@@ -787,6 +787,147 @@
     <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2015 (Tasa respuesta: 45,48%)</t>
   </si>
   <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
     <t>9,49%</t>
   </si>
   <si>
@@ -814,33 +955,6 @@
     <t>12,41%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
     <t>36,49%</t>
   </si>
   <si>
@@ -868,18 +982,6 @@
     <t>39,32%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
     <t>53,12%</t>
   </si>
   <si>
@@ -907,106 +1009,40 @@
     <t>56,84%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>9,32%</t>
@@ -1033,30 +1069,6 @@
     <t>12,26%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
     <t>35,5%</t>
   </si>
   <si>
@@ -1082,18 +1094,6 @@
   </si>
   <si>
     <t>37,53%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
   </si>
   <si>
     <t>54,29%</t>
@@ -1512,7 +1512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC777868-4088-4009-890B-33E49D72058C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D35AF0-7B0E-491A-A2F1-F51150661D22}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1902,10 +1902,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>33760</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1917,34 +1917,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>28261</v>
+        <v>642</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>642</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7">
-        <v>94</v>
-      </c>
-      <c r="N10" s="7">
-        <v>62021</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,46 +1956,46 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>719</v>
+        <v>578</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1942</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4237</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2520</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>7</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4957</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,49 +2004,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>79445</v>
+        <v>8110</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="7">
+        <v>9</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6109</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7">
-        <v>127</v>
-      </c>
-      <c r="I12" s="7">
-        <v>85673</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>21</v>
+      </c>
+      <c r="N12" s="7">
+        <v>14219</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="M12" s="7">
-        <v>245</v>
-      </c>
-      <c r="N12" s="7">
-        <v>165117</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,49 +2055,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>667</v>
+        <v>18282</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="7">
+        <v>20</v>
+      </c>
+      <c r="I13" s="7">
+        <v>13489</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>687</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="N13" s="7">
-        <v>1354</v>
+        <v>31771</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,49 +2106,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>135919</v>
+        <v>31420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7">
-        <v>121570</v>
+        <v>26700</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
-        <v>385</v>
+        <v>89</v>
       </c>
       <c r="N14" s="7">
-        <v>257488</v>
+        <v>58120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,102 +2157,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>376</v>
+        <v>89</v>
       </c>
       <c r="D15" s="7">
-        <v>250510</v>
+        <v>58390</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>357</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>240427</v>
+        <v>48882</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>733</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>490936</v>
+        <v>107272</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>8110</v>
+        <v>667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>6109</v>
+        <v>687</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1354</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="7">
-        <v>21</v>
-      </c>
-      <c r="N16" s="7">
-        <v>14219</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,46 +2264,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>578</v>
+        <v>719</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="7">
+        <v>6</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4237</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1942</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>7</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4957</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2520</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,49 +2312,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D18" s="7">
-        <v>18282</v>
+        <v>33760</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="7">
+        <v>43</v>
+      </c>
+      <c r="I18" s="7">
+        <v>28261</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="7">
-        <v>20</v>
-      </c>
-      <c r="I18" s="7">
-        <v>13489</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>94</v>
+      </c>
+      <c r="N18" s="7">
+        <v>62021</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="M18" s="7">
-        <v>47</v>
-      </c>
-      <c r="N18" s="7">
-        <v>31771</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,46 +2363,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>79445</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="7">
+        <v>127</v>
+      </c>
+      <c r="I19" s="7">
+        <v>85673</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>642</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>245</v>
+      </c>
+      <c r="N19" s="7">
+        <v>165117</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>642</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>91</v>
@@ -2414,10 +2414,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="D20" s="7">
-        <v>31420</v>
+        <v>135919</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>92</v>
@@ -2429,10 +2429,10 @@
         <v>94</v>
       </c>
       <c r="H20" s="7">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="I20" s="7">
-        <v>26700</v>
+        <v>121570</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>95</v>
@@ -2444,10 +2444,10 @@
         <v>97</v>
       </c>
       <c r="M20" s="7">
-        <v>89</v>
+        <v>385</v>
       </c>
       <c r="N20" s="7">
-        <v>58120</v>
+        <v>257488</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>98</v>
@@ -2465,49 +2465,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>89</v>
+        <v>376</v>
       </c>
       <c r="D21" s="7">
-        <v>58390</v>
+        <v>250510</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>357</v>
       </c>
       <c r="I21" s="7">
-        <v>48882</v>
+        <v>240427</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>733</v>
       </c>
       <c r="N21" s="7">
-        <v>107272</v>
+        <v>490936</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,49 +2518,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>41870</v>
+        <v>667</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1328</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H22" s="7">
-        <v>52</v>
-      </c>
-      <c r="I22" s="7">
-        <v>34369</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1996</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="M22" s="7">
-        <v>115</v>
-      </c>
-      <c r="N22" s="7">
-        <v>76240</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,13 +2575,13 @@
         <v>1297</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -2590,13 +2590,13 @@
         <v>6179</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -2605,13 +2605,13 @@
         <v>7477</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,49 +2620,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="D24" s="7">
-        <v>97726</v>
+        <v>41870</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>52</v>
+      </c>
+      <c r="I24" s="7">
+        <v>34369</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="7">
-        <v>147</v>
-      </c>
-      <c r="I24" s="7">
-        <v>99162</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>115</v>
+      </c>
+      <c r="N24" s="7">
+        <v>76240</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="M24" s="7">
-        <v>292</v>
-      </c>
-      <c r="N24" s="7">
-        <v>196888</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,40 +2671,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="D25" s="7">
-        <v>667</v>
+        <v>97726</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>147</v>
+      </c>
+      <c r="I25" s="7">
+        <v>99162</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1328</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>130</v>
       </c>
       <c r="M25" s="7">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="N25" s="7">
-        <v>1996</v>
+        <v>196888</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>131</v>
@@ -2779,13 +2779,13 @@
         <v>308899</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>430</v>
@@ -2794,13 +2794,13 @@
         <v>289309</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>895</v>
@@ -2809,13 +2809,13 @@
         <v>598208</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2834,7 +2834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE726477-30BE-4915-AA68-875F6D5B2E56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3619086E-CD78-443E-8856-03B49FBC23D5}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3224,49 +3224,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>23977</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="7">
-        <v>45</v>
-      </c>
-      <c r="I10" s="7">
-        <v>32166</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M10" s="7">
-        <v>79</v>
-      </c>
-      <c r="N10" s="7">
-        <v>56143</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,49 +3275,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>3204</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>3190</v>
+        <v>822</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>6394</v>
+        <v>822</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,49 +3326,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>86302</v>
+        <v>7679</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="H12" s="7">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>73287</v>
+        <v>5023</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="M12" s="7">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="N12" s="7">
-        <v>159590</v>
+        <v>12702</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,49 +3377,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>22646</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>22883</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>45529</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,49 +3428,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>146421</v>
+        <v>35849</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="7">
+        <v>58</v>
+      </c>
+      <c r="I14" s="7">
+        <v>40641</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M14" s="7">
+        <v>108</v>
+      </c>
+      <c r="N14" s="7">
+        <v>76490</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="H14" s="7">
-        <v>189</v>
-      </c>
-      <c r="I14" s="7">
-        <v>133247</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M14" s="7">
-        <v>406</v>
-      </c>
-      <c r="N14" s="7">
-        <v>279668</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,102 +3479,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>382</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>259904</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>345</v>
+        <v>98</v>
       </c>
       <c r="I15" s="7">
-        <v>241890</v>
+        <v>69368</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>727</v>
+        <v>190</v>
       </c>
       <c r="N15" s="7">
-        <v>501794</v>
+        <v>135542</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>7679</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>5023</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="7">
-        <v>12702</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,49 +3583,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>3204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>822</v>
+        <v>3190</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>822</v>
+        <v>6394</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,49 +3634,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D18" s="7">
-        <v>22646</v>
+        <v>23977</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="7">
+        <v>45</v>
+      </c>
+      <c r="I18" s="7">
+        <v>32166</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" s="7">
+        <v>79</v>
+      </c>
+      <c r="N18" s="7">
+        <v>56143</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H18" s="7">
-        <v>32</v>
-      </c>
-      <c r="I18" s="7">
-        <v>22883</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M18" s="7">
-        <v>63</v>
-      </c>
-      <c r="N18" s="7">
-        <v>45529</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,49 +3685,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>86302</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>73287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>159590</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3736,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="D20" s="7">
-        <v>35849</v>
+        <v>146421</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>206</v>
@@ -3751,10 +3751,10 @@
         <v>207</v>
       </c>
       <c r="H20" s="7">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="I20" s="7">
-        <v>40641</v>
+        <v>133247</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>208</v>
@@ -3766,10 +3766,10 @@
         <v>210</v>
       </c>
       <c r="M20" s="7">
-        <v>108</v>
+        <v>406</v>
       </c>
       <c r="N20" s="7">
-        <v>76490</v>
+        <v>279668</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>211</v>
@@ -3787,49 +3787,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>382</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>259904</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>98</v>
+        <v>345</v>
       </c>
       <c r="I21" s="7">
-        <v>69368</v>
+        <v>241890</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>190</v>
+        <v>727</v>
       </c>
       <c r="N21" s="7">
-        <v>135542</v>
+        <v>501794</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,49 +3840,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>31656</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H22" s="7">
-        <v>52</v>
-      </c>
-      <c r="I22" s="7">
-        <v>37189</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M22" s="7">
-        <v>97</v>
-      </c>
-      <c r="N22" s="7">
-        <v>68844</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3897,13 @@
         <v>3204</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3912,13 +3912,13 @@
         <v>4012</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -3927,13 +3927,13 @@
         <v>7215</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,49 +3942,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="D24" s="7">
-        <v>108948</v>
+        <v>31656</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H24" s="7">
+        <v>52</v>
+      </c>
+      <c r="I24" s="7">
+        <v>37189</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M24" s="7">
+        <v>97</v>
+      </c>
+      <c r="N24" s="7">
+        <v>68844</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H24" s="7">
-        <v>139</v>
-      </c>
-      <c r="I24" s="7">
-        <v>96170</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M24" s="7">
-        <v>296</v>
-      </c>
-      <c r="N24" s="7">
-        <v>205119</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,46 +3993,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>108948</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>96170</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M25" s="7">
+        <v>296</v>
+      </c>
+      <c r="N25" s="7">
+        <v>205119</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>238</v>
@@ -4101,13 +4101,13 @@
         <v>326078</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>443</v>
@@ -4116,13 +4116,13 @@
         <v>311258</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>917</v>
@@ -4131,13 +4131,13 @@
         <v>637337</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4156,7 +4156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0947D189-AF2C-44DC-8FD1-5359B6C56A12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD87587-B8F3-4188-BABB-5550D73229D0}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4546,49 +4546,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>25719</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1218</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H10" s="7">
-        <v>36</v>
-      </c>
-      <c r="I10" s="7">
-        <v>26828</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1218</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M10" s="7">
-        <v>73</v>
-      </c>
-      <c r="N10" s="7">
-        <v>52548</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,49 +4597,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>626</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1284</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M11" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="7">
-        <v>2446</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="N11" s="7">
+        <v>1910</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4854</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="M11" s="7">
-        <v>10</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7300</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,49 +4648,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>98919</v>
+        <v>6624</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>267</v>
+        <v>39</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>268</v>
+        <v>112</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I12" s="7">
-        <v>87698</v>
+        <v>10739</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="M12" s="7">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="N12" s="7">
-        <v>186618</v>
+        <v>17363</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,49 +4699,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>24250</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I13" s="7">
-        <v>706</v>
+        <v>27576</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="N13" s="7">
-        <v>706</v>
+        <v>51826</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,49 +4750,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="D14" s="7">
-        <v>143973</v>
+        <v>44366</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H14" s="7">
+        <v>68</v>
+      </c>
+      <c r="I14" s="7">
+        <v>45110</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M14" s="7">
+        <v>131</v>
+      </c>
+      <c r="N14" s="7">
+        <v>89475</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="H14" s="7">
-        <v>193</v>
-      </c>
-      <c r="I14" s="7">
-        <v>137760</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M14" s="7">
-        <v>386</v>
-      </c>
-      <c r="N14" s="7">
-        <v>281734</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,102 +4801,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>367</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
-        <v>271058</v>
+        <v>75866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>361</v>
+        <v>129</v>
       </c>
       <c r="I15" s="7">
-        <v>257847</v>
+        <v>85927</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>728</v>
+        <v>239</v>
       </c>
       <c r="N15" s="7">
-        <v>528906</v>
+        <v>161793</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>6624</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>10739</v>
+        <v>706</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>17363</v>
+        <v>706</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,49 +4905,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>626</v>
+        <v>2446</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H17" s="7">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4854</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M17" s="7">
+        <v>10</v>
+      </c>
+      <c r="N17" s="7">
+        <v>7300</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1284</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M17" s="7">
-        <v>3</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1910</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,49 +4956,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>37</v>
+      </c>
+      <c r="D18" s="7">
+        <v>25719</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H18" s="7">
         <v>36</v>
       </c>
-      <c r="D18" s="7">
-        <v>24250</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="I18" s="7">
+        <v>26828</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>73</v>
+      </c>
+      <c r="N18" s="7">
+        <v>52548</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H18" s="7">
-        <v>41</v>
-      </c>
-      <c r="I18" s="7">
-        <v>27576</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="M18" s="7">
-        <v>77</v>
-      </c>
-      <c r="N18" s="7">
-        <v>51826</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,46 +5007,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>98919</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>27</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>306</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H19" s="7">
+        <v>124</v>
+      </c>
+      <c r="I19" s="7">
+        <v>87698</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1218</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>258</v>
+      </c>
+      <c r="N19" s="7">
+        <v>186618</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1218</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>313</v>
@@ -5058,10 +5058,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="D20" s="7">
-        <v>44366</v>
+        <v>143973</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>314</v>
@@ -5073,10 +5073,10 @@
         <v>316</v>
       </c>
       <c r="H20" s="7">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="I20" s="7">
-        <v>45110</v>
+        <v>137760</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>317</v>
@@ -5088,10 +5088,10 @@
         <v>319</v>
       </c>
       <c r="M20" s="7">
-        <v>131</v>
+        <v>386</v>
       </c>
       <c r="N20" s="7">
-        <v>89475</v>
+        <v>281734</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>320</v>
@@ -5109,49 +5109,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>110</v>
+        <v>367</v>
       </c>
       <c r="D21" s="7">
-        <v>75866</v>
+        <v>271058</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>129</v>
+        <v>361</v>
       </c>
       <c r="I21" s="7">
-        <v>85927</v>
+        <v>257847</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>239</v>
+        <v>728</v>
       </c>
       <c r="N21" s="7">
-        <v>161793</v>
+        <v>528906</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,49 +5162,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>32344</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1925</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H22" s="7">
-        <v>52</v>
-      </c>
-      <c r="I22" s="7">
-        <v>37567</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1925</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M22" s="7">
-        <v>99</v>
-      </c>
-      <c r="N22" s="7">
-        <v>69911</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5219,13 @@
         <v>3072</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -5234,13 +5234,13 @@
         <v>6138</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -5249,13 +5249,13 @@
         <v>9210</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,49 +5264,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7">
-        <v>123169</v>
+        <v>32344</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H24" s="7">
+        <v>52</v>
+      </c>
+      <c r="I24" s="7">
+        <v>37567</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>99</v>
+      </c>
+      <c r="N24" s="7">
+        <v>69911</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="H24" s="7">
-        <v>165</v>
-      </c>
-      <c r="I24" s="7">
-        <v>115274</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M24" s="7">
-        <v>335</v>
-      </c>
-      <c r="N24" s="7">
-        <v>238444</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,43 +5315,43 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>123169</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>27</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>154</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="I25" s="7">
-        <v>1925</v>
+        <v>115274</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>335</v>
+      </c>
+      <c r="N25" s="7">
+        <v>238444</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1925</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>350</v>
@@ -5423,13 +5423,13 @@
         <v>346924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>490</v>
@@ -5438,13 +5438,13 @@
         <v>343774</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>967</v>
@@ -5453,13 +5453,13 @@
         <v>690698</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C61478F-2056-45E8-9DE5-E561932ADD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{078920AC-AA9F-4EA6-AB17-3E6013EBA3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FC52C602-8AAA-4344-BC8F-72291397AE73}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D9FC7FF-FA48-4A7D-AE18-F73CDCB63642}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="361">
   <si>
     <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2007 (Tasa respuesta: 42,54%)</t>
   </si>
@@ -67,1060 +67,1060 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>2,13%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
   </si>
   <si>
     <t>11,95%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2015 (Tasa respuesta: 45,48%)</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2015 (Tasa respuesta: 45,48%)</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
     <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1131,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1227,39 +1227,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1311,7 +1311,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1422,13 +1422,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1437,6 +1430,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1501,19 +1501,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D35AF0-7B0E-491A-A2F1-F51150661D22}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF7F77D-BD35-4B19-A8AC-5876118378CD}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1904,47 +1924,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>642</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>642</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,49 +1967,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,49 +2012,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7">
-        <v>8110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>21</v>
-      </c>
-      <c r="N12" s="7">
-        <v>14219</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,49 +2057,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
-      </c>
-      <c r="D13" s="7">
-        <v>18282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
-      </c>
-      <c r="I13" s="7">
-        <v>13489</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>47</v>
-      </c>
-      <c r="N13" s="7">
-        <v>31771</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,49 +2102,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>49</v>
-      </c>
-      <c r="D14" s="7">
-        <v>31420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
-      </c>
-      <c r="I14" s="7">
-        <v>26700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>89</v>
-      </c>
-      <c r="N14" s="7">
-        <v>58120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,102 +2147,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>89</v>
-      </c>
-      <c r="D15" s="7">
-        <v>58390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>667</v>
+        <v>58583</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="I16" s="7">
-        <v>687</v>
+        <v>60347</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="N16" s="7">
-        <v>1354</v>
+        <v>118930</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,49 +2245,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D17" s="7">
-        <v>719</v>
+        <v>46196</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="I17" s="7">
-        <v>4237</v>
+        <v>32252</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="N17" s="7">
-        <v>4957</v>
+        <v>78447</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,49 +2296,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D18" s="7">
-        <v>33760</v>
+        <v>17446</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
+        <v>24</v>
+      </c>
+      <c r="I18" s="7">
+        <v>15795</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="7">
+        <v>50</v>
+      </c>
+      <c r="N18" s="7">
+        <v>33240</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="7">
-        <v>28261</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" s="7">
-        <v>94</v>
-      </c>
-      <c r="N18" s="7">
-        <v>62021</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,49 +2347,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>79445</v>
+        <v>578</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>85673</v>
+        <v>2676</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>245</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>165117</v>
+        <v>3254</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,49 +2398,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>135919</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>121570</v>
+        <v>642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
-        <v>385</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>257488</v>
+        <v>642</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,102 +2449,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>376</v>
+        <v>185</v>
       </c>
       <c r="D21" s="7">
-        <v>250510</v>
+        <v>122802</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>357</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>240427</v>
+        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>733</v>
+        <v>353</v>
       </c>
       <c r="N21" s="7">
-        <v>490936</v>
+        <v>234513</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="D22" s="7">
-        <v>667</v>
+        <v>108755</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="I22" s="7">
-        <v>1328</v>
+        <v>87923</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>294</v>
       </c>
       <c r="N22" s="7">
-        <v>1996</v>
+        <v>196678</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,49 +2553,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D23" s="7">
-        <v>1297</v>
+        <v>51531</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="H23" s="7">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="I23" s="7">
-        <v>6179</v>
+        <v>66910</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M23" s="7">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="N23" s="7">
-        <v>7477</v>
+        <v>118441</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,49 +2604,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D24" s="7">
-        <v>41870</v>
+        <v>24425</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I24" s="7">
-        <v>34369</v>
+        <v>18575</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="M24" s="7">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="N24" s="7">
-        <v>76240</v>
+        <v>42999</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,49 +2655,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>97726</v>
+        <v>719</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>99162</v>
+        <v>3504</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>196888</v>
+        <v>4223</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,49 +2706,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>167338</v>
+        <v>667</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>148270</v>
+        <v>687</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
-        <v>474</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>315608</v>
+        <v>1354</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,55 +2757,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>280</v>
+      </c>
+      <c r="D27" s="7">
+        <v>186097</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
+        <v>262</v>
+      </c>
+      <c r="I27" s="7">
+        <v>177598</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="7">
+        <v>542</v>
+      </c>
+      <c r="N27" s="7">
+        <v>363695</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>254</v>
+      </c>
+      <c r="D28" s="7">
+        <v>167338</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="7">
+        <v>220</v>
+      </c>
+      <c r="I28" s="7">
+        <v>148270</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="7">
+        <v>474</v>
+      </c>
+      <c r="N28" s="7">
+        <v>315608</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>145</v>
+      </c>
+      <c r="D29" s="7">
+        <v>97726</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="7">
+        <v>147</v>
+      </c>
+      <c r="I29" s="7">
+        <v>99162</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M29" s="7">
+        <v>292</v>
+      </c>
+      <c r="N29" s="7">
+        <v>196888</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>63</v>
+      </c>
+      <c r="D30" s="7">
+        <v>41870</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="7">
+        <v>52</v>
+      </c>
+      <c r="I30" s="7">
+        <v>34369</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="7">
+        <v>115</v>
+      </c>
+      <c r="N30" s="7">
+        <v>76240</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1297</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="7">
+        <v>9</v>
+      </c>
+      <c r="I31" s="7">
+        <v>6179</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M31" s="7">
+        <v>11</v>
+      </c>
+      <c r="N31" s="7">
+        <v>7477</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>667</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1328</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1996</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>465</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>308899</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>430</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>289309</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="7">
         <v>895</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>598208</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>59</v>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2834,8 +3132,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3619086E-CD78-443E-8856-03B49FBC23D5}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3436BD-3FFD-4B28-BEAE-5E15989BEE7C}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2851,7 +3149,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3226,47 +3524,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,47 +3569,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>822</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>822</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,49 +3612,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7">
-        <v>7679</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>18</v>
-      </c>
-      <c r="N12" s="7">
-        <v>12702</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,49 +3657,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7">
-        <v>22646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>63</v>
-      </c>
-      <c r="N13" s="7">
-        <v>45529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,49 +3702,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
-      </c>
-      <c r="D14" s="7">
-        <v>35849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>58</v>
-      </c>
-      <c r="I14" s="7">
-        <v>40641</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>108</v>
-      </c>
-      <c r="N14" s="7">
-        <v>76490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,102 +3747,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>98</v>
-      </c>
-      <c r="I15" s="7">
-        <v>69368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>190</v>
-      </c>
-      <c r="N15" s="7">
-        <v>135542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>86185</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>92042</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>178227</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,49 +3845,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7">
-        <v>3204</v>
+        <v>50821</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="I17" s="7">
-        <v>3190</v>
+        <v>41350</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="N17" s="7">
-        <v>6394</v>
+        <v>92171</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,49 +3896,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D18" s="7">
-        <v>23977</v>
+        <v>18421</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="H18" s="7">
+        <v>20</v>
+      </c>
+      <c r="I18" s="7">
+        <v>13920</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" s="7">
         <v>45</v>
       </c>
-      <c r="I18" s="7">
-        <v>32166</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M18" s="7">
-        <v>79</v>
-      </c>
       <c r="N18" s="7">
-        <v>56143</v>
+        <v>32341</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,49 +3947,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>86302</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="H19" s="7">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>73287</v>
+        <v>1737</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="M19" s="7">
-        <v>233</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>159590</v>
+        <v>1737</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>56</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,49 +3998,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>146421</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>205</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="H20" s="7">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>133247</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="M20" s="7">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>279668</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,102 +4049,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>382</v>
+        <v>223</v>
       </c>
       <c r="D21" s="7">
-        <v>259904</v>
+        <v>155427</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>345</v>
+        <v>213</v>
       </c>
       <c r="I21" s="7">
-        <v>241890</v>
+        <v>149049</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>727</v>
+        <v>436</v>
       </c>
       <c r="N21" s="7">
-        <v>501794</v>
+        <v>304476</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>96085</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="7">
+        <v>115</v>
+      </c>
+      <c r="I22" s="7">
+        <v>81846</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>177931</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,49 +4153,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D23" s="7">
-        <v>3204</v>
+        <v>58127</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="I23" s="7">
-        <v>4012</v>
+        <v>54821</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="M23" s="7">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="N23" s="7">
-        <v>7215</v>
+        <v>112948</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,49 +4204,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D24" s="7">
-        <v>31656</v>
+        <v>13235</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="H24" s="7">
+        <v>32</v>
+      </c>
+      <c r="I24" s="7">
+        <v>23269</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" s="7">
         <v>52</v>
       </c>
-      <c r="I24" s="7">
-        <v>37189</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M24" s="7">
-        <v>97</v>
-      </c>
       <c r="N24" s="7">
-        <v>68844</v>
+        <v>36504</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>229</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,49 +4255,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>108948</v>
+        <v>3204</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>231</v>
+        <v>92</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="H25" s="7">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>96170</v>
+        <v>2274</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="M25" s="7">
-        <v>296</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>205119</v>
+        <v>5478</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>237</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +4306,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>182270</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>239</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>240</v>
+        <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="H26" s="7">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>173888</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>242</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="M26" s="7">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>356158</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>245</v>
+        <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>246</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,55 +4357,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>251</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170651</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
+        <v>230</v>
+      </c>
+      <c r="I27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="7">
+        <v>481</v>
+      </c>
+      <c r="N27" s="7">
+        <v>332861</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>267</v>
+      </c>
+      <c r="D28" s="7">
+        <v>182270</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H28" s="7">
+        <v>247</v>
+      </c>
+      <c r="I28" s="7">
+        <v>173888</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" s="7">
+        <v>514</v>
+      </c>
+      <c r="N28" s="7">
+        <v>356158</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>157</v>
+      </c>
+      <c r="D29" s="7">
+        <v>108948</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H29" s="7">
+        <v>139</v>
+      </c>
+      <c r="I29" s="7">
+        <v>96170</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" s="7">
+        <v>296</v>
+      </c>
+      <c r="N29" s="7">
+        <v>205119</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>45</v>
+      </c>
+      <c r="D30" s="7">
+        <v>31656</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H30" s="7">
+        <v>52</v>
+      </c>
+      <c r="I30" s="7">
+        <v>37189</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M30" s="7">
+        <v>97</v>
+      </c>
+      <c r="N30" s="7">
+        <v>68844</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3204</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4012</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M31" s="7">
+        <v>10</v>
+      </c>
+      <c r="N31" s="7">
+        <v>7215</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>474</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>326078</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>443</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>311258</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="7">
         <v>917</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>637337</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>59</v>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4156,8 +4732,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD87587-B8F3-4188-BABB-5550D73229D0}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDC7006-1F94-4175-8839-3597C2D80D0E}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4548,47 +5124,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1218</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1218</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,49 +5167,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,49 +5212,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7">
-        <v>6624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>16</v>
-      </c>
-      <c r="I12" s="7">
-        <v>10739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>26</v>
-      </c>
-      <c r="N12" s="7">
-        <v>17363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,49 +5257,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
-      </c>
-      <c r="D13" s="7">
-        <v>24250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>41</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27576</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>77</v>
-      </c>
-      <c r="N13" s="7">
-        <v>51826</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,49 +5302,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>63</v>
-      </c>
-      <c r="D14" s="7">
-        <v>44366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>68</v>
-      </c>
-      <c r="I14" s="7">
-        <v>45110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>131</v>
-      </c>
-      <c r="N14" s="7">
-        <v>89475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,102 +5347,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>129</v>
-      </c>
-      <c r="I15" s="7">
-        <v>85927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>239</v>
-      </c>
-      <c r="N15" s="7">
-        <v>161793</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>103422</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="I16" s="7">
-        <v>706</v>
+        <v>98282</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>61</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="N16" s="7">
-        <v>706</v>
+        <v>201705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,49 +5445,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="D17" s="7">
-        <v>2446</v>
+        <v>59118</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="I17" s="7">
-        <v>4854</v>
+        <v>55490</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="N17" s="7">
-        <v>7300</v>
+        <v>114609</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,49 +5496,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>25719</v>
+        <v>15444</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="H18" s="7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I18" s="7">
-        <v>26828</v>
+        <v>21181</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="M18" s="7">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="N18" s="7">
-        <v>52548</v>
+        <v>36625</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,49 +5547,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>98919</v>
+        <v>626</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>306</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="H19" s="7">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>87698</v>
+        <v>2795</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>309</v>
+        <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="M19" s="7">
-        <v>258</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>186618</v>
+        <v>3421</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,49 +5598,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>143973</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>208</v>
       </c>
       <c r="H20" s="7">
-        <v>193</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>137760</v>
+        <v>1218</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>318</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
-        <v>386</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>281734</v>
+        <v>1218</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,102 +5649,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>367</v>
+        <v>250</v>
       </c>
       <c r="D21" s="7">
-        <v>271058</v>
+        <v>178611</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>361</v>
+        <v>256</v>
       </c>
       <c r="I21" s="7">
-        <v>257847</v>
+        <v>178967</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>728</v>
+        <v>506</v>
       </c>
       <c r="N21" s="7">
-        <v>528906</v>
+        <v>357578</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>84916</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>287</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="I22" s="7">
-        <v>1925</v>
+        <v>84588</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>232</v>
       </c>
       <c r="N22" s="7">
-        <v>1925</v>
+        <v>169504</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,49 +5753,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D23" s="7">
-        <v>3072</v>
+        <v>64051</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="H23" s="7">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="I23" s="7">
-        <v>6138</v>
+        <v>59784</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="M23" s="7">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="N23" s="7">
-        <v>9210</v>
+        <v>123835</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,49 +5804,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D24" s="7">
-        <v>32344</v>
+        <v>16900</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="H24" s="7">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I24" s="7">
-        <v>37567</v>
+        <v>16386</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="M24" s="7">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="N24" s="7">
-        <v>69911</v>
+        <v>33285</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>342</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,49 +5855,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>123169</v>
+        <v>2446</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="H25" s="7">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>115274</v>
+        <v>3343</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="M25" s="7">
-        <v>335</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>238444</v>
+        <v>5789</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,49 +5906,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>188339</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="H26" s="7">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>182870</v>
+        <v>706</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>246</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>90</v>
       </c>
       <c r="M26" s="7">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>371209</v>
+        <v>706</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,55 +5957,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>227</v>
+      </c>
+      <c r="D27" s="7">
+        <v>168313</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="7">
+        <v>461</v>
+      </c>
+      <c r="N27" s="7">
+        <v>333120</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>256</v>
+      </c>
+      <c r="D28" s="7">
+        <v>188339</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H28" s="7">
+        <v>261</v>
+      </c>
+      <c r="I28" s="7">
+        <v>182870</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M28" s="7">
+        <v>517</v>
+      </c>
+      <c r="N28" s="7">
+        <v>371209</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>170</v>
+      </c>
+      <c r="D29" s="7">
+        <v>123169</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H29" s="7">
+        <v>165</v>
+      </c>
+      <c r="I29" s="7">
+        <v>115274</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="M29" s="7">
+        <v>335</v>
+      </c>
+      <c r="N29" s="7">
+        <v>238444</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>47</v>
+      </c>
+      <c r="D30" s="7">
+        <v>32344</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H30" s="7">
+        <v>52</v>
+      </c>
+      <c r="I30" s="7">
+        <v>37567</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M30" s="7">
+        <v>99</v>
+      </c>
+      <c r="N30" s="7">
+        <v>69911</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3072</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H31" s="7">
+        <v>9</v>
+      </c>
+      <c r="I31" s="7">
+        <v>6138</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="M31" s="7">
+        <v>13</v>
+      </c>
+      <c r="N31" s="7">
+        <v>9210</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1925</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1925</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>477</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>346924</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>490</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>343774</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="7">
         <v>967</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>690698</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>59</v>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C12-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{078920AC-AA9F-4EA6-AB17-3E6013EBA3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C71AD06C-F78C-4AFC-8C97-FEB705EBCC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D9FC7FF-FA48-4A7D-AE18-F73CDCB63642}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6BBAB98-3D7C-4317-9241-F1145FD7A9C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,28 +97,28 @@
     <t>47,71%</t>
   </si>
   <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
   </si>
   <si>
     <t>54,02%</t>
   </si>
   <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
   </si>
   <si>
     <t>50,71%</t>
   </si>
   <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
   </si>
   <si>
     <t>37,62%</t>
@@ -127,43 +127,43 @@
     <t>30,46%</t>
   </si>
   <si>
-    <t>44,81%</t>
+    <t>44,24%</t>
   </si>
   <si>
     <t>28,87%</t>
   </si>
   <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
   </si>
   <si>
     <t>33,45%</t>
   </si>
   <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
   </si>
   <si>
     <t>14,17%</t>
@@ -172,7 +172,7 @@
     <t>10,95%</t>
   </si>
   <si>
-    <t>18,4%</t>
+    <t>18,25%</t>
   </si>
   <si>
     <t>0,47%</t>
@@ -181,16 +181,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,37%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>1,39%</t>
@@ -199,7 +199,7 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>3,14%</t>
+    <t>3,11%</t>
   </si>
   <si>
     <t>0%</t>
@@ -211,13 +211,13 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>3,1%</t>
+    <t>3,06%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,36%</t>
+    <t>1,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -229,97 +229,97 @@
     <t>58,44%</t>
   </si>
   <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
   </si>
   <si>
     <t>49,51%</t>
   </si>
   <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
   </si>
   <si>
     <t>27,69%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
   </si>
   <si>
     <t>37,68%</t>
   </si>
   <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
   </si>
   <si>
     <t>32,57%</t>
   </si>
   <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,94%</t>
+    <t>1,88%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>1,16%</t>
@@ -328,793 +328,793 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,41%</t>
+    <t>2,43%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,31%</t>
+    <t>1,27%</t>
   </si>
   <si>
     <t>54,17%</t>
   </si>
   <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
   </si>
   <si>
     <t>51,25%</t>
   </si>
   <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
   </si>
   <si>
     <t>52,76%</t>
   </si>
   <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
   </si>
   <si>
     <t>31,64%</t>
   </si>
   <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
   </si>
   <si>
     <t>34,28%</t>
   </si>
   <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
   </si>
   <si>
     <t>32,91%</t>
   </si>
   <si>
-    <t>29,81%</t>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2016 (Tasa respuesta: 45,48%)</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
   </si>
   <si>
     <t>36,24%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>0,22%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2015 (Tasa respuesta: 45,48%)</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -1532,7 +1532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF7F77D-BD35-4B19-A8AC-5876118378CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A617F8-7DF0-491A-87DA-883861B1BA4C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2975,7 +2975,7 @@
         <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -2984,13 +2984,13 @@
         <v>6179</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -2999,13 +2999,13 @@
         <v>7477</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3020,13 @@
         <v>667</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -3035,13 +3035,13 @@
         <v>1328</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -3050,13 +3050,13 @@
         <v>1996</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,7 +3132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3436BD-3FFD-4B28-BEAE-5E15989BEE7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59D4FC4-C1AC-41E2-A49F-23B2A2F55E52}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3989,7 +3989,7 @@
         <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,7 +4025,7 @@
         <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4108,13 @@
         <v>96085</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H22" s="7">
         <v>115</v>
@@ -4123,13 +4123,13 @@
         <v>81846</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>255</v>
@@ -4138,13 +4138,13 @@
         <v>177931</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4159,13 @@
         <v>58127</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H23" s="7">
         <v>80</v>
@@ -4174,13 +4174,13 @@
         <v>54821</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M23" s="7">
         <v>166</v>
@@ -4189,13 +4189,13 @@
         <v>112948</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4210,13 @@
         <v>13235</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -4225,13 +4225,13 @@
         <v>23269</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M24" s="7">
         <v>52</v>
@@ -4240,13 +4240,13 @@
         <v>36504</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4261,13 @@
         <v>3204</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>92</v>
+        <v>205</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4276,13 +4276,13 @@
         <v>2274</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4291,13 +4291,13 @@
         <v>5478</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>57</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,7 +4318,7 @@
         <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4333,7 +4333,7 @@
         <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4416,13 @@
         <v>182270</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H28" s="7">
         <v>247</v>
@@ -4431,13 +4431,13 @@
         <v>173888</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M28" s="7">
         <v>514</v>
@@ -4446,13 +4446,13 @@
         <v>356158</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4467,13 @@
         <v>108948</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H29" s="7">
         <v>139</v>
@@ -4482,13 +4482,13 @@
         <v>96170</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M29" s="7">
         <v>296</v>
@@ -4497,13 +4497,13 @@
         <v>205119</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4518,13 @@
         <v>31656</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H30" s="7">
         <v>52</v>
@@ -4533,13 +4533,13 @@
         <v>37189</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="M30" s="7">
         <v>97</v>
@@ -4548,13 +4548,13 @@
         <v>68844</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4569,13 @@
         <v>3204</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -4584,13 +4584,13 @@
         <v>4012</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -4599,13 +4599,13 @@
         <v>7215</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,7 +4626,7 @@
         <v>54</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4641,7 +4641,7 @@
         <v>54</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>54</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,7 +4732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDC7006-1F94-4175-8839-3597C2D80D0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEAB5D6-7CC6-4C01-A2E5-964266F54B85}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4749,7 +4749,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5400,13 +5400,13 @@
         <v>103422</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
@@ -5415,13 +5415,13 @@
         <v>98282</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>285</v>
@@ -5430,13 +5430,13 @@
         <v>201705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5451,13 @@
         <v>59118</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>78</v>
@@ -5466,13 +5466,13 @@
         <v>55490</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>161</v>
@@ -5481,13 +5481,13 @@
         <v>114609</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5502,13 @@
         <v>15444</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -5517,13 +5517,13 @@
         <v>21181</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
@@ -5532,13 +5532,13 @@
         <v>36625</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5553,13 @@
         <v>626</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5568,13 +5568,13 @@
         <v>2795</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5583,10 +5583,10 @@
         <v>3421</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>281</v>
+        <v>97</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>282</v>
@@ -5610,7 +5610,7 @@
         <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5831,7 +5831,7 @@
         <v>309</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -5840,13 +5840,13 @@
         <v>33285</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5927,13 @@
         <v>706</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>90</v>
+        <v>247</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5942,13 +5942,13 @@
         <v>706</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,13 +6016,13 @@
         <v>188339</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="H28" s="7">
         <v>261</v>
@@ -6169,13 +6169,13 @@
         <v>3072</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>142</v>
+        <v>349</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>247</v>
+        <v>350</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>349</v>
+        <v>282</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -6184,13 +6184,13 @@
         <v>6138</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -6199,13 +6199,13 @@
         <v>9210</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,7 +6226,7 @@
         <v>54</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6235,7 +6235,7 @@
         <v>1925</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>356</v>
+        <v>246</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>357</v>
@@ -6256,7 +6256,7 @@
         <v>360</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>208</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP07C12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C71AD06C-F78C-4AFC-8C97-FEB705EBCC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE287756-F2DD-4EB1-881C-BCDBA703DA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6BBAB98-3D7C-4317-9241-F1145FD7A9C5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{253CD8ED-49C3-4E92-B48F-AB635D608348}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="357">
   <si>
     <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2007 (Tasa respuesta: 42,54%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,85 +94,94 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
     <t>47,71%</t>
   </si>
   <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
   </si>
   <si>
     <t>50,71%</t>
   </si>
   <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
   </si>
   <si>
     <t>37,62%</t>
   </si>
   <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
   </si>
   <si>
     <t>33,45%</t>
   </si>
   <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
   </si>
   <si>
     <t>0,47%</t>
@@ -181,16 +190,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>2,85%</t>
   </si>
   <si>
     <t>1,39%</t>
@@ -199,7 +199,13 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>3,11%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>0%</t>
@@ -208,16 +214,10 @@
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,38%</t>
+    <t>1,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -226,901 +226,889 @@
     <t>12-15</t>
   </si>
   <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
     <t>58,44%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
   </si>
   <si>
     <t>27,69%</t>
   </si>
   <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
   </si>
   <si>
     <t>32,57%</t>
   </si>
   <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
   </si>
   <si>
     <t>7,04%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2016 (Tasa respuesta: 45,48%)</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
   </si>
   <si>
     <t>58,26%</t>
   </si>
   <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2016 (Tasa respuesta: 45,48%)</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,49%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
     <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A617F8-7DF0-491A-87DA-883861B1BA4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBEA9B6-2E1F-42CA-8105-251CFE5F4165}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2197,7 +2185,7 @@
         <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>58583</v>
+        <v>60347</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2212,7 +2200,7 @@
         <v>90</v>
       </c>
       <c r="I16" s="7">
-        <v>60347</v>
+        <v>58583</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2245,10 +2233,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7">
-        <v>46196</v>
+        <v>32252</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2260,10 +2248,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I17" s="7">
-        <v>32252</v>
+        <v>46196</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2296,10 +2284,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="7">
-        <v>17446</v>
+        <v>15795</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2311,10 +2299,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I18" s="7">
-        <v>15795</v>
+        <v>17446</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2347,10 +2335,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>578</v>
+        <v>2676</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2362,10 +2350,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>2676</v>
+        <v>578</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2398,31 +2386,31 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>57</v>
@@ -2437,7 +2425,7 @@
         <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>59</v>
@@ -2449,25 +2437,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>168</v>
+      </c>
+      <c r="D21" s="7">
+        <v>111711</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>185</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>122802</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>168</v>
-      </c>
-      <c r="I21" s="7">
-        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2502,10 +2490,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D22" s="7">
-        <v>108755</v>
+        <v>87923</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>62</v>
@@ -2514,22 +2502,22 @@
         <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="7">
+        <v>164</v>
+      </c>
+      <c r="I22" s="7">
+        <v>108755</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="7">
-        <v>130</v>
-      </c>
-      <c r="I22" s="7">
-        <v>87923</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M22" s="7">
         <v>294</v>
@@ -2538,13 +2526,13 @@
         <v>196678</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,34 +2541,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>98</v>
+      </c>
+      <c r="D23" s="7">
+        <v>66910</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="7">
         <v>77</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>51531</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="7">
-        <v>98</v>
-      </c>
-      <c r="I23" s="7">
-        <v>66910</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M23" s="7">
         <v>175</v>
@@ -2589,13 +2577,13 @@
         <v>118441</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,34 +2592,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>28</v>
+      </c>
+      <c r="D24" s="7">
+        <v>18575</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="7">
         <v>37</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>24425</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="7">
-        <v>28</v>
-      </c>
-      <c r="I24" s="7">
-        <v>18575</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M24" s="7">
         <v>65</v>
@@ -2640,13 +2628,13 @@
         <v>42999</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,34 +2643,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>719</v>
+        <v>3504</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>90</v>
       </c>
       <c r="H25" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>3504</v>
+        <v>719</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>91</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2691,13 +2679,13 @@
         <v>4223</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,31 +2697,31 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>667</v>
+        <v>687</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2742,13 +2730,13 @@
         <v>1354</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,25 +2745,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>262</v>
+      </c>
+      <c r="D27" s="7">
+        <v>177598</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>280</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>186097</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>262</v>
-      </c>
-      <c r="I27" s="7">
-        <v>177598</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2810,34 +2798,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>220</v>
+      </c>
+      <c r="D28" s="7">
+        <v>148270</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="7">
         <v>254</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>167338</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="7">
-        <v>220</v>
-      </c>
-      <c r="I28" s="7">
-        <v>148270</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>474</v>
@@ -2846,13 +2834,13 @@
         <v>315608</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,34 +2849,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>147</v>
+      </c>
+      <c r="D29" s="7">
+        <v>99162</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="7">
         <v>145</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>97726</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H29" s="7">
-        <v>147</v>
-      </c>
-      <c r="I29" s="7">
-        <v>99162</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>292</v>
@@ -2897,13 +2885,13 @@
         <v>196888</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,34 +2900,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>52</v>
+      </c>
+      <c r="D30" s="7">
+        <v>34369</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="7">
         <v>63</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>41870</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="7">
-        <v>52</v>
-      </c>
-      <c r="I30" s="7">
-        <v>34369</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M30" s="7">
         <v>115</v>
@@ -2948,13 +2936,13 @@
         <v>76240</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,34 +2951,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D31" s="7">
-        <v>1297</v>
+        <v>6179</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>130</v>
       </c>
       <c r="H31" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>6179</v>
+        <v>1297</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>131</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -2999,13 +2987,13 @@
         <v>7477</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,34 +3002,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1328</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="7">
         <v>1</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>667</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H32" s="7">
-        <v>2</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1328</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -3050,13 +3038,13 @@
         <v>1996</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,25 +3053,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>430</v>
+      </c>
+      <c r="D33" s="7">
+        <v>289309</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>465</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>308899</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>430</v>
-      </c>
-      <c r="I33" s="7">
-        <v>289309</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -3132,7 +3120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59D4FC4-C1AC-41E2-A49F-23B2A2F55E52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971B2FA9-C4AA-450F-BA18-B1E6538FD62C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3794,10 +3782,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D16" s="7">
-        <v>86185</v>
+        <v>92042</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>145</v>
@@ -3809,10 +3797,10 @@
         <v>147</v>
       </c>
       <c r="H16" s="7">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I16" s="7">
-        <v>92042</v>
+        <v>86185</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>148</v>
@@ -3845,10 +3833,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D17" s="7">
-        <v>50821</v>
+        <v>41350</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>154</v>
@@ -3860,10 +3848,10 @@
         <v>156</v>
       </c>
       <c r="H17" s="7">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="I17" s="7">
-        <v>41350</v>
+        <v>50821</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>157</v>
@@ -3896,10 +3884,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>18421</v>
+        <v>13920</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>163</v>
@@ -3911,10 +3899,10 @@
         <v>165</v>
       </c>
       <c r="H18" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I18" s="7">
-        <v>13920</v>
+        <v>18421</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>166</v>
@@ -3947,31 +3935,31 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>1737</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>1737</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>174</v>
@@ -3983,10 +3971,10 @@
         <v>1737</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>175</v>
@@ -4004,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4019,13 +4007,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4034,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>177</v>
@@ -4049,25 +4037,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>213</v>
+      </c>
+      <c r="D21" s="7">
+        <v>149049</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>223</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>155427</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>213</v>
-      </c>
-      <c r="I21" s="7">
-        <v>149049</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -4102,10 +4090,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D22" s="7">
-        <v>96085</v>
+        <v>81846</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>178</v>
@@ -4117,10 +4105,10 @@
         <v>180</v>
       </c>
       <c r="H22" s="7">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="I22" s="7">
-        <v>81846</v>
+        <v>96085</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>181</v>
@@ -4153,10 +4141,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D23" s="7">
-        <v>58127</v>
+        <v>54821</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>187</v>
@@ -4168,10 +4156,10 @@
         <v>189</v>
       </c>
       <c r="H23" s="7">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I23" s="7">
-        <v>54821</v>
+        <v>58127</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>190</v>
@@ -4195,7 +4183,7 @@
         <v>194</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>195</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,34 +4192,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>32</v>
+      </c>
+      <c r="D24" s="7">
+        <v>23269</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" s="7">
         <v>20</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>13235</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H24" s="7">
-        <v>32</v>
-      </c>
-      <c r="I24" s="7">
-        <v>23269</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M24" s="7">
         <v>52</v>
@@ -4240,13 +4228,13 @@
         <v>36504</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,34 +4243,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2274</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3204</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2274</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>206</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4291,13 +4279,13 @@
         <v>5478</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4300,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4327,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4342,13 +4330,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,25 +4345,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>251</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170651</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>230</v>
-      </c>
-      <c r="I27" s="7">
-        <v>162209</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -4410,10 +4398,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="D28" s="7">
-        <v>182270</v>
+        <v>173888</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>214</v>
@@ -4425,10 +4413,10 @@
         <v>216</v>
       </c>
       <c r="H28" s="7">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="I28" s="7">
-        <v>173888</v>
+        <v>182270</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>217</v>
@@ -4461,10 +4449,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D29" s="7">
-        <v>108948</v>
+        <v>96170</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>223</v>
@@ -4476,10 +4464,10 @@
         <v>225</v>
       </c>
       <c r="H29" s="7">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="I29" s="7">
-        <v>96170</v>
+        <v>108948</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>226</v>
@@ -4512,10 +4500,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D30" s="7">
-        <v>31656</v>
+        <v>37189</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>232</v>
@@ -4527,10 +4515,10 @@
         <v>234</v>
       </c>
       <c r="H30" s="7">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I30" s="7">
-        <v>37189</v>
+        <v>31656</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>235</v>
@@ -4539,7 +4527,7 @@
         <v>236</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="M30" s="7">
         <v>97</v>
@@ -4548,13 +4536,13 @@
         <v>68844</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4554,13 @@
         <v>5</v>
       </c>
       <c r="D31" s="7">
-        <v>3204</v>
+        <v>4012</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>241</v>
+        <v>48</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>242</v>
@@ -4581,16 +4569,16 @@
         <v>5</v>
       </c>
       <c r="I31" s="7">
-        <v>4012</v>
+        <v>3204</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>138</v>
+        <v>243</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>244</v>
+        <v>128</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -4599,13 +4587,13 @@
         <v>7215</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>247</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4608,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4635,13 +4623,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>248</v>
+        <v>94</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4650,13 +4638,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,25 +4653,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>443</v>
+      </c>
+      <c r="D33" s="7">
+        <v>311258</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>474</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>326078</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>443</v>
-      </c>
-      <c r="I33" s="7">
-        <v>311258</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -4732,7 +4720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEAB5D6-7CC6-4C01-A2E5-964266F54B85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE2C037-BDAF-4515-AF13-2ABDE53720BF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4749,7 +4737,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5394,34 +5382,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>142</v>
+      </c>
+      <c r="D16" s="7">
+        <v>98282</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H16" s="7">
         <v>143</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>103422</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="H16" s="7">
-        <v>142</v>
-      </c>
-      <c r="I16" s="7">
-        <v>98282</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>285</v>
@@ -5430,13 +5418,13 @@
         <v>201705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,34 +5433,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>78</v>
+      </c>
+      <c r="D17" s="7">
+        <v>55490</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H17" s="7">
         <v>83</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>59118</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H17" s="7">
-        <v>78</v>
-      </c>
-      <c r="I17" s="7">
-        <v>55490</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>264</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="M17" s="7">
         <v>161</v>
@@ -5481,13 +5469,13 @@
         <v>114609</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,34 +5484,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7">
+        <v>21181</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="7">
         <v>23</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>15444</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H18" s="7">
-        <v>30</v>
-      </c>
-      <c r="I18" s="7">
-        <v>21181</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
@@ -5532,13 +5520,13 @@
         <v>36625</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,34 +5535,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2795</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>626</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2795</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5583,13 +5571,13 @@
         <v>3421</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,34 +5586,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>1218</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1218</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>283</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>284</v>
+        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5634,13 +5622,13 @@
         <v>1218</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,25 +5637,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>256</v>
+      </c>
+      <c r="D21" s="7">
+        <v>178967</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>250</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>178611</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>256</v>
-      </c>
-      <c r="I21" s="7">
-        <v>178967</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5702,34 +5690,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>119</v>
+      </c>
+      <c r="D22" s="7">
+        <v>84588</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H22" s="7">
         <v>113</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>84916</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H22" s="7">
-        <v>119</v>
-      </c>
-      <c r="I22" s="7">
-        <v>84588</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M22" s="7">
         <v>232</v>
@@ -5738,13 +5726,13 @@
         <v>169504</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,31 +5744,31 @@
         <v>87</v>
       </c>
       <c r="D23" s="7">
-        <v>64051</v>
+        <v>59784</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H23" s="7">
         <v>87</v>
       </c>
       <c r="I23" s="7">
-        <v>59784</v>
+        <v>64051</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M23" s="7">
         <v>174</v>
@@ -5789,13 +5777,13 @@
         <v>123835</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,34 +5792,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7">
+        <v>16386</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H24" s="7">
         <v>24</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>16900</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H24" s="7">
-        <v>22</v>
-      </c>
-      <c r="I24" s="7">
-        <v>16386</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>199</v>
+        <v>304</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -5840,13 +5828,13 @@
         <v>33285</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,34 +5843,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3343</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H25" s="7">
         <v>3</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2446</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3343</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>316</v>
+        <v>91</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -5891,13 +5879,13 @@
         <v>5789</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,34 +5894,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>321</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>706</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>248</v>
+        <v>49</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5942,13 +5930,13 @@
         <v>706</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,25 +5945,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>227</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>168313</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>234</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164807</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6010,34 +5998,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>261</v>
+      </c>
+      <c r="D28" s="7">
+        <v>182870</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H28" s="7">
         <v>256</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>188339</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H28" s="7">
-        <v>261</v>
-      </c>
-      <c r="I28" s="7">
-        <v>182870</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>326</v>
+        <v>182</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M28" s="7">
         <v>517</v>
@@ -6046,13 +6034,13 @@
         <v>371209</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,34 +6049,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>165</v>
+      </c>
+      <c r="D29" s="7">
+        <v>115274</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H29" s="7">
         <v>170</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>123169</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="J29" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H29" s="7">
-        <v>165</v>
-      </c>
-      <c r="I29" s="7">
-        <v>115274</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>335</v>
@@ -6097,13 +6085,13 @@
         <v>238444</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,34 +6100,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>52</v>
+      </c>
+      <c r="D30" s="7">
+        <v>37567</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H30" s="7">
         <v>47</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>32344</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H30" s="7">
-        <v>52</v>
-      </c>
-      <c r="I30" s="7">
-        <v>37567</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>344</v>
+        <v>236</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M30" s="7">
         <v>99</v>
@@ -6148,13 +6136,13 @@
         <v>69911</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,34 +6151,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6138</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H31" s="7">
         <v>4</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>3072</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H31" s="7">
-        <v>9</v>
-      </c>
-      <c r="I31" s="7">
-        <v>6138</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -6199,13 +6187,13 @@
         <v>9210</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>356</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,34 +6202,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>1925</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>46</v>
+        <v>351</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>54</v>
+        <v>352</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="H32" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>246</v>
+        <v>49</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>357</v>
+        <v>56</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>358</v>
+        <v>94</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -6250,13 +6238,13 @@
         <v>1925</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,25 +6253,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>490</v>
+      </c>
+      <c r="D33" s="7">
+        <v>343774</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>477</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>346924</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>490</v>
-      </c>
-      <c r="I33" s="7">
-        <v>343774</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
